--- a/data/자료확인.xlsx
+++ b/data/자료확인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\coolingImpact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86B2D2-7BCF-4103-AA25-BD9657973AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDBF417-D75F-4A79-AE6F-3F6A3E36E38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{108BE4F5-B61A-4A9B-822B-7C4E3084830C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>경기도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,63 @@
     <t>https://www.data.go.kr/data/15065266/fileData.do</t>
   </si>
   <si>
+    <t>전력판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동두천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.kma.go.kr/data/grnd/selectAsosRltmList.do?pgmNo=36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://home.kepco.co.kr/kepco/KO/ntcob/list.do?pageIndex=1&amp;boardSeq=21004631&amp;boardCd=BRD_000283&amp;menuCd=FN05030105&amp;parnScrpSeq=0&amp;searchCondition=total&amp;searchKeyword=</t>
-  </si>
-  <si>
-    <t>전력판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종시는 2012년 10월 부터 데이터가 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +156,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -126,18 +188,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,72 +538,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFDF448-C804-4F09-87FE-7C4670F3AEAE}">
-  <dimension ref="A3:G6"/>
+  <dimension ref="A3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{B461A08F-BF12-4198-9B7F-4641C2B32624}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{1A528629-0E66-4339-A16E-A3D9846EE103}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{5E25795D-9E10-408A-ACC3-68A41599C6C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>